--- a/WebApplication3/wwwroot/Formatos/ComfasubEvaluacionAlistamientoPersonalComfasub.xlsx
+++ b/WebApplication3/wwwroot/Formatos/ComfasubEvaluacionAlistamientoPersonalComfasub.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\source\repos\siesmar\WebApplication3\wwwroot\Formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIESMAR\siesmar\WebApplication3\wwwroot\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFF9881-4EB9-4672-AEED-72705CE9E936}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23732E3-1396-4038-830F-CBF7115C32C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" xr2:uid="{DCEB2EE0-CB63-47A9-BCED-CC0B6D9AEF8F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>UNIDAD</t>
   </si>
@@ -118,6 +118,21 @@
   </si>
   <si>
     <t>0.50</t>
+  </si>
+  <si>
+    <t>SUBDIEX 2016</t>
+  </si>
+  <si>
+    <t>SUBDIEX 2017</t>
+  </si>
+  <si>
+    <t>SUBDIEX 2018</t>
+  </si>
+  <si>
+    <t>SUBDIEX 2019</t>
+  </si>
+  <si>
+    <t>5 AÑOS</t>
   </si>
 </sst>
 </file>
@@ -494,7 +509,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="R2" sqref="R2:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,16 +608,16 @@
         <v>3</v>
       </c>
       <c r="G2" s="2">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="H2" s="2">
-        <v>2</v>
+        <v>3105</v>
       </c>
       <c r="I2" s="2">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="J2" s="2">
-        <v>1</v>
+        <v>3104</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>29</v>
@@ -625,11 +640,11 @@
       <c r="Q2" s="3">
         <v>55035</v>
       </c>
-      <c r="R2" s="2">
-        <v>100</v>
-      </c>
-      <c r="S2" s="2">
-        <v>100</v>
+      <c r="R2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -652,16 +667,16 @@
         <v>3</v>
       </c>
       <c r="G3" s="2">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="H3" s="2">
-        <v>2</v>
+        <v>3105</v>
       </c>
       <c r="I3" s="2">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="J3" s="2">
-        <v>1</v>
+        <v>3104</v>
       </c>
       <c r="K3" s="4">
         <v>1</v>
@@ -684,11 +699,11 @@
       <c r="Q3" s="3">
         <v>55035</v>
       </c>
-      <c r="R3" s="2">
-        <v>100</v>
-      </c>
-      <c r="S3" s="2">
-        <v>100</v>
+      <c r="R3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -711,16 +726,16 @@
         <v>3</v>
       </c>
       <c r="G4" s="2">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="H4" s="2">
-        <v>2</v>
+        <v>3105</v>
       </c>
       <c r="I4" s="2">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="J4" s="2">
-        <v>1</v>
+        <v>3104</v>
       </c>
       <c r="K4" s="4">
         <v>1</v>
@@ -743,11 +758,11 @@
       <c r="Q4" s="3">
         <v>55035</v>
       </c>
-      <c r="R4" s="2">
-        <v>100</v>
-      </c>
-      <c r="S4" s="2">
-        <v>100</v>
+      <c r="R4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -770,16 +785,16 @@
         <v>3</v>
       </c>
       <c r="G5" s="2">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="H5" s="2">
-        <v>2</v>
+        <v>3105</v>
       </c>
       <c r="I5" s="2">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="J5" s="2">
-        <v>1</v>
+        <v>3104</v>
       </c>
       <c r="K5" s="4">
         <v>1</v>
@@ -802,11 +817,11 @@
       <c r="Q5" s="3">
         <v>55035</v>
       </c>
-      <c r="R5" s="2">
-        <v>100</v>
-      </c>
-      <c r="S5" s="2">
-        <v>100</v>
+      <c r="R5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
